--- a/ex/거래명세표.xlsx
+++ b/ex/거래명세표.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{523A8A16-7202-42A2-BA6D-94B590BBB227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C30725EC-3E4F-4C20-9619-0D87ABAA5944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,199 +942,199 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,7 +1567,7 @@
   <dimension ref="B1:O106"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1576,8 +1576,8 @@
     <col min="2" max="2" width="5.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" customWidth="1"/>
-    <col min="5" max="5" width="2.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="4" style="3" customWidth="1"/>
+    <col min="5" max="5" width="2.25" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="1.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="3.625" style="3" customWidth="1"/>
     <col min="9" max="10" width="6.5" style="3" customWidth="1"/>
@@ -1592,44 +1592,44 @@
   <sheetData>
     <row r="1" spans="2:15" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:15" ht="58.5" customHeight="1">
-      <c r="B2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="B2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="30"/>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="69" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
     </row>
     <row r="4" spans="2:15" ht="23.1" customHeight="1">
       <c r="B4" s="29"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="63"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1662,40 +1662,40 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="24" customHeight="1">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="63"/>
+      <c r="K5" s="70"/>
       <c r="L5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="70"/>
-      <c r="O5" s="71"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="78"/>
     </row>
     <row r="6" spans="2:15" ht="23.1" customHeight="1">
       <c r="B6" s="29"/>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="63"/>
+      <c r="K6" s="70"/>
       <c r="L6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1710,596 +1710,596 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="63"/>
+      <c r="K7" s="70"/>
       <c r="L7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="73"/>
-      <c r="O7" s="74"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
     </row>
     <row r="8" spans="2:15" ht="33.75" customHeight="1" thickBot="1">
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="75">
+      <c r="D8" s="82">
         <f>K32+N32</f>
         <v>18810</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
       <c r="L8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="77"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="84"/>
     </row>
     <row r="9" spans="2:15" ht="24.95" customHeight="1" thickBot="1">
       <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="63"/>
+      <c r="E9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="63"/>
+      <c r="G9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="56" t="s">
+      <c r="H9" s="64"/>
+      <c r="I9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="52" t="s">
+      <c r="J9" s="63"/>
+      <c r="K9" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="48" t="s">
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="49"/>
+      <c r="O9" s="85"/>
     </row>
     <row r="10" spans="2:15" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="B10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="41" t="s">
+      <c r="D10" s="94"/>
+      <c r="E10" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="37">
+      <c r="F10" s="96"/>
+      <c r="G10" s="90">
         <v>1</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="37">
+      <c r="H10" s="92"/>
+      <c r="I10" s="90">
         <v>14400</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="37">
+      <c r="J10" s="92"/>
+      <c r="K10" s="90">
         <f>G10*I10</f>
         <v>14400</v>
       </c>
-      <c r="L10" s="46"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="50">
+      <c r="L10" s="91"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="86">
         <f>K10*0.1</f>
         <v>1440</v>
       </c>
-      <c r="O10" s="51"/>
+      <c r="O10" s="87"/>
     </row>
     <row r="11" spans="2:15" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="B11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="39">
+      <c r="D11" s="45"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46">
         <v>1</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="39">
+      <c r="H11" s="47"/>
+      <c r="I11" s="46">
         <v>2700</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="37">
+      <c r="J11" s="89"/>
+      <c r="K11" s="90">
         <f>G11*I11</f>
         <v>2700</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="39">
+      <c r="L11" s="91"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="46">
         <f>K11*0.1</f>
         <v>270</v>
       </c>
-      <c r="O11" s="47"/>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" spans="2:15" ht="23.1" customHeight="1" thickTop="1">
       <c r="B12" s="20"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="47"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="49"/>
     </row>
     <row r="13" spans="2:15" ht="23.1" customHeight="1">
       <c r="B13" s="20"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="47"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="49"/>
     </row>
     <row r="14" spans="2:15" ht="23.1" customHeight="1">
       <c r="B14" s="20"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="47"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="49"/>
     </row>
     <row r="15" spans="2:15" ht="23.1" customHeight="1">
       <c r="B15" s="18"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44">
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48">
         <f t="shared" ref="I15:I28" si="0">INT(N15/1.1)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="34">
+      <c r="J15" s="37"/>
+      <c r="K15" s="54">
         <f t="shared" ref="K15:K28" si="1">I15*0.1</f>
         <v>0</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="47"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="49"/>
     </row>
     <row r="16" spans="2:15" ht="23.1" customHeight="1">
       <c r="B16" s="18"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44">
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="34">
+      <c r="J16" s="37"/>
+      <c r="K16" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="47"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="49"/>
     </row>
     <row r="17" spans="2:15" ht="23.1" customHeight="1">
       <c r="B17" s="18"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
       <c r="H17" s="27"/>
-      <c r="I17" s="44">
+      <c r="I17" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="34">
+      <c r="J17" s="37"/>
+      <c r="K17" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
       <c r="N17" s="27"/>
       <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" ht="23.1" customHeight="1">
       <c r="B18" s="18"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
       <c r="H18" s="27"/>
-      <c r="I18" s="44">
+      <c r="I18" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="45"/>
-      <c r="K18" s="34">
+      <c r="J18" s="37"/>
+      <c r="K18" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
       <c r="N18" s="27"/>
       <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15" ht="23.1" customHeight="1">
       <c r="B19" s="18"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
       <c r="H19" s="27"/>
-      <c r="I19" s="44">
+      <c r="I19" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="34">
+      <c r="J19" s="37"/>
+      <c r="K19" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
       <c r="N19" s="27"/>
       <c r="O19" s="28"/>
     </row>
     <row r="20" spans="2:15" ht="23.1" customHeight="1">
       <c r="B20" s="18"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
       <c r="H20" s="27"/>
-      <c r="I20" s="44">
+      <c r="I20" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="34">
+      <c r="J20" s="37"/>
+      <c r="K20" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
       <c r="N20" s="27"/>
       <c r="O20" s="28"/>
     </row>
     <row r="21" spans="2:15" ht="23.1" customHeight="1">
       <c r="B21" s="18"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
       <c r="H21" s="27"/>
-      <c r="I21" s="44">
+      <c r="I21" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="34">
+      <c r="J21" s="37"/>
+      <c r="K21" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
       <c r="N21" s="27"/>
       <c r="O21" s="28"/>
     </row>
     <row r="22" spans="2:15" ht="23.1" customHeight="1">
       <c r="B22" s="18"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
       <c r="H22" s="27"/>
-      <c r="I22" s="44">
+      <c r="I22" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="34">
+      <c r="J22" s="37"/>
+      <c r="K22" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
       <c r="N22" s="27"/>
       <c r="O22" s="28"/>
     </row>
     <row r="23" spans="2:15" ht="23.1" customHeight="1">
       <c r="B23" s="18"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
       <c r="H23" s="27"/>
-      <c r="I23" s="44">
+      <c r="I23" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="34">
+      <c r="J23" s="37"/>
+      <c r="K23" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
       <c r="N23" s="27"/>
       <c r="O23" s="28"/>
     </row>
     <row r="24" spans="2:15" ht="23.1" customHeight="1">
       <c r="B24" s="18"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="44">
+      <c r="I24" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="45"/>
-      <c r="K24" s="34">
+      <c r="J24" s="37"/>
+      <c r="K24" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
       <c r="N24" s="27"/>
       <c r="O24" s="28"/>
     </row>
     <row r="25" spans="2:15" ht="23.1" customHeight="1">
       <c r="B25" s="18"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44">
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="34">
+      <c r="J25" s="37"/>
+      <c r="K25" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="47"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="49"/>
     </row>
     <row r="26" spans="2:15" ht="23.1" customHeight="1">
       <c r="B26" s="18"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44">
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="34">
+      <c r="J26" s="37"/>
+      <c r="K26" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="47"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="49"/>
     </row>
     <row r="27" spans="2:15" ht="23.1" customHeight="1">
       <c r="B27" s="18"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44">
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="45"/>
-      <c r="K27" s="34">
+      <c r="J27" s="37"/>
+      <c r="K27" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="47"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="49"/>
     </row>
     <row r="28" spans="2:15" ht="23.1" customHeight="1">
       <c r="B28" s="18"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44">
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="45"/>
-      <c r="K28" s="34">
+      <c r="J28" s="37"/>
+      <c r="K28" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="47"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="49"/>
     </row>
     <row r="29" spans="2:15" ht="23.1" customHeight="1">
       <c r="B29" s="18"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44">
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48">
         <f t="shared" ref="I29" si="2">INT(N29/1.1)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="45"/>
-      <c r="K29" s="34">
+      <c r="J29" s="37"/>
+      <c r="K29" s="54">
         <f>B29*0.1</f>
         <v>0</v>
       </c>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="47"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="49"/>
     </row>
     <row r="30" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="34">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="54">
         <f>SUM(K10:M29)</f>
         <v>17100</v>
       </c>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="47"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="49"/>
     </row>
     <row r="31" spans="2:15" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="82">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="55">
         <f>N10+N11</f>
         <v>1710</v>
       </c>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="79"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="51"/>
     </row>
     <row r="32" spans="2:15" s="13" customFormat="1" ht="23.1" customHeight="1" thickTop="1">
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="83">
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="56">
         <f>SUM(K30:M31)</f>
         <v>18810</v>
       </c>
-      <c r="L32" s="84"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="81"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="53"/>
     </row>
     <row r="33" spans="2:15" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="B33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="88"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
       <c r="L33" s="17" t="s">
         <v>39</v>
       </c>
@@ -2537,6 +2537,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:M28"/>
     <mergeCell ref="C33:K33"/>
     <mergeCell ref="B30:J30"/>
     <mergeCell ref="B31:J31"/>
@@ -2561,105 +2660,6 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>

--- a/ex/거래명세표.xlsx
+++ b/ex/거래명세표.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29602"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C30725EC-3E4F-4C20-9619-0D87ABAA5944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF90549F-E493-4C93-A99A-C4C001C5524C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -348,19 +348,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -465,6 +452,310 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,7 +765,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,285 +776,53 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,10 +832,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,10 +845,49 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,10 +897,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,7 +910,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="double">
         <color indexed="64"/>
@@ -823,7 +921,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="double">
         <color indexed="64"/>
@@ -836,18 +934,51 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -867,19 +998,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -888,253 +1019,262 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1566,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O106"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1592,62 +1732,62 @@
   <sheetData>
     <row r="1" spans="2:15" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:15" ht="58.5" customHeight="1">
-      <c r="B2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="B2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="69" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="M3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B4" s="29"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="70"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1657,45 +1797,45 @@
       <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="24" customHeight="1">
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="70"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="76" t="s">
+      <c r="M5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
     </row>
     <row r="6" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B6" s="29"/>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="70"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="35"/>
       <c r="L6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1710,843 +1850,922 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="79" t="s">
+      <c r="M7" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="2:15" ht="33.75" customHeight="1" thickBot="1">
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="82">
+      <c r="D8" s="47">
         <f>K32+N32</f>
         <v>18810</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="84"/>
-    </row>
-    <row r="9" spans="2:15" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B9" s="19" t="s">
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
+    </row>
+    <row r="9" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="62" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="62" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="88" t="s">
+      <c r="J9" s="29"/>
+      <c r="K9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="64" t="s">
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="85"/>
-    </row>
-    <row r="10" spans="2:15" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="21" t="s">
+      <c r="O9" s="23"/>
+    </row>
+    <row r="10" spans="2:15" ht="23.1" customHeight="1">
+      <c r="B10" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95" t="s">
+      <c r="D10" s="63"/>
+      <c r="E10" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="90">
+      <c r="F10" s="65"/>
+      <c r="G10" s="96">
         <v>1</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="90">
+      <c r="H10" s="97"/>
+      <c r="I10" s="66">
         <v>14400</v>
       </c>
-      <c r="J10" s="92"/>
-      <c r="K10" s="90">
+      <c r="J10" s="67"/>
+      <c r="K10" s="66">
         <f>G10*I10</f>
         <v>14400</v>
       </c>
-      <c r="L10" s="91"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="86">
+      <c r="L10" s="68"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="69">
         <f>K10*0.1</f>
         <v>1440</v>
       </c>
-      <c r="O10" s="87"/>
-    </row>
-    <row r="11" spans="2:15" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="23" t="s">
+      <c r="O10" s="70"/>
+    </row>
+    <row r="11" spans="2:15" ht="23.1" customHeight="1">
+      <c r="B11" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46">
+      <c r="D11" s="73"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="80">
         <v>1</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="46">
+      <c r="H11" s="87"/>
+      <c r="I11" s="74">
         <v>2700</v>
       </c>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90">
+      <c r="J11" s="76"/>
+      <c r="K11" s="74">
         <f>G11*I11</f>
         <v>2700</v>
       </c>
-      <c r="L11" s="91"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="46">
+      <c r="L11" s="75"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="74">
         <f>K11*0.1</f>
         <v>270</v>
       </c>
-      <c r="O11" s="49"/>
-    </row>
-    <row r="12" spans="2:15" ht="23.1" customHeight="1" thickTop="1">
-      <c r="B12" s="20"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="49"/>
+      <c r="O11" s="77"/>
+    </row>
+    <row r="12" spans="2:15" ht="23.1" customHeight="1">
+      <c r="B12" s="78"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="77"/>
     </row>
     <row r="13" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B13" s="20"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="49"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="77"/>
     </row>
     <row r="14" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B14" s="20"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="49"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="77"/>
     </row>
     <row r="15" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B15" s="18"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48">
+      <c r="B15" s="79"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="80">
         <f t="shared" ref="I15:I28" si="0">INT(N15/1.1)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="54">
+      <c r="J15" s="81"/>
+      <c r="K15" s="94">
         <f t="shared" ref="K15:K28" si="1">I15*0.1</f>
         <v>0</v>
       </c>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="49"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="77"/>
     </row>
     <row r="16" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B16" s="18"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48">
+      <c r="B16" s="79"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="54">
+      <c r="J16" s="81"/>
+      <c r="K16" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="49"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="77"/>
     </row>
     <row r="17" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B17" s="18"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="48">
+      <c r="B17" s="79"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="54">
+      <c r="J17" s="81"/>
+      <c r="K17" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="85"/>
     </row>
     <row r="18" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B18" s="18"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="48">
+      <c r="B18" s="79"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="54">
+      <c r="J18" s="81"/>
+      <c r="K18" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="85"/>
     </row>
     <row r="19" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B19" s="18"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="48">
+      <c r="B19" s="79"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="54">
+      <c r="J19" s="81"/>
+      <c r="K19" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="85"/>
     </row>
     <row r="20" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B20" s="18"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="48">
+      <c r="B20" s="79"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="54">
+      <c r="J20" s="81"/>
+      <c r="K20" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="85"/>
     </row>
     <row r="21" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B21" s="18"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="48">
+      <c r="B21" s="79"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="54">
+      <c r="J21" s="81"/>
+      <c r="K21" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="85"/>
     </row>
     <row r="22" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B22" s="18"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="48">
+      <c r="B22" s="79"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="54">
+      <c r="J22" s="81"/>
+      <c r="K22" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="28"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="85"/>
     </row>
     <row r="23" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B23" s="18"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="48">
+      <c r="B23" s="79"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="54">
+      <c r="J23" s="81"/>
+      <c r="K23" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="28"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="85"/>
     </row>
     <row r="24" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B24" s="18"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="48">
+      <c r="B24" s="79"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="54">
+      <c r="J24" s="81"/>
+      <c r="K24" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="28"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="85"/>
     </row>
     <row r="25" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B25" s="18"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48">
+      <c r="B25" s="79"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="54">
+      <c r="J25" s="81"/>
+      <c r="K25" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="49"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="77"/>
     </row>
     <row r="26" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B26" s="18"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48">
+      <c r="B26" s="79"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="54">
+      <c r="J26" s="81"/>
+      <c r="K26" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="49"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="77"/>
     </row>
     <row r="27" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B27" s="18"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48">
+      <c r="B27" s="79"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="54">
+      <c r="J27" s="81"/>
+      <c r="K27" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="49"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="77"/>
     </row>
     <row r="28" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B28" s="18"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48">
+      <c r="B28" s="79"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="54">
+      <c r="J28" s="81"/>
+      <c r="K28" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="49"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="77"/>
     </row>
     <row r="29" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B29" s="18"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48">
+      <c r="B29" s="79"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="80">
         <f t="shared" ref="I29" si="2">INT(N29/1.1)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="54">
+      <c r="J29" s="81"/>
+      <c r="K29" s="94">
         <f>B29*0.1</f>
         <v>0</v>
       </c>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="49"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="77"/>
     </row>
     <row r="30" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="54">
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="94">
         <f>SUM(K10:M29)</f>
         <v>17100</v>
       </c>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="49"/>
-    </row>
-    <row r="31" spans="2:15" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B31" s="38" t="s">
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="77"/>
+    </row>
+    <row r="31" spans="2:15" ht="23.1" customHeight="1">
+      <c r="B31" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="55">
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="95">
         <f>N10+N11</f>
         <v>1710</v>
       </c>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="51"/>
-    </row>
-    <row r="32" spans="2:15" s="13" customFormat="1" ht="23.1" customHeight="1" thickTop="1">
-      <c r="B32" s="41" t="s">
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="92"/>
+    </row>
+    <row r="32" spans="2:15" s="13" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B32" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="56">
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="52">
         <f>SUM(K30:M31)</f>
         <v>18810</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="51"/>
     </row>
     <row r="33" spans="2:15" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="B33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="17" t="s">
+      <c r="C33" s="55"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M33" s="15" t="str">
+      <c r="M33" s="93" t="str">
         <f>C6</f>
         <v>거래처명</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="16"/>
+      <c r="O33" s="15"/>
     </row>
     <row r="34" spans="2:15">
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
     </row>
     <row r="35" spans="2:15">
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="L36" s="30"/>
+      <c r="L36" s="20"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="L37" s="30"/>
+      <c r="L37" s="20"/>
     </row>
     <row r="38" spans="2:15">
-      <c r="L38" s="30"/>
+      <c r="L38" s="20"/>
     </row>
     <row r="39" spans="2:15">
-      <c r="L39" s="30"/>
+      <c r="L39" s="20"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="L40" s="30"/>
+      <c r="L40" s="20"/>
     </row>
     <row r="41" spans="2:15">
-      <c r="L41" s="30"/>
+      <c r="L41" s="20"/>
     </row>
     <row r="42" spans="2:15">
-      <c r="L42" s="30"/>
+      <c r="L42" s="20"/>
     </row>
     <row r="43" spans="2:15">
-      <c r="L43" s="30"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="2:15">
-      <c r="L44" s="30"/>
+      <c r="L44" s="20"/>
     </row>
     <row r="45" spans="2:15">
-      <c r="L45" s="30"/>
+      <c r="L45" s="20"/>
     </row>
     <row r="46" spans="2:15">
-      <c r="L46" s="30"/>
+      <c r="L46" s="20"/>
     </row>
     <row r="47" spans="2:15">
-      <c r="L47" s="30"/>
+      <c r="L47" s="20"/>
     </row>
     <row r="48" spans="2:15">
-      <c r="L48" s="30"/>
+      <c r="L48" s="20"/>
     </row>
     <row r="49" spans="12:12">
-      <c r="L49" s="30"/>
+      <c r="L49" s="20"/>
     </row>
     <row r="50" spans="12:12">
-      <c r="L50" s="30"/>
+      <c r="L50" s="20"/>
     </row>
     <row r="51" spans="12:12">
-      <c r="L51" s="30"/>
+      <c r="L51" s="20"/>
     </row>
     <row r="52" spans="12:12">
-      <c r="L52" s="30"/>
+      <c r="L52" s="20"/>
     </row>
     <row r="53" spans="12:12">
-      <c r="L53" s="30"/>
+      <c r="L53" s="20"/>
     </row>
     <row r="54" spans="12:12">
-      <c r="L54" s="30"/>
+      <c r="L54" s="20"/>
     </row>
     <row r="55" spans="12:12">
-      <c r="L55" s="30"/>
+      <c r="L55" s="20"/>
     </row>
     <row r="56" spans="12:12">
-      <c r="L56" s="30"/>
+      <c r="L56" s="20"/>
     </row>
     <row r="57" spans="12:12">
-      <c r="L57" s="30"/>
+      <c r="L57" s="20"/>
     </row>
     <row r="58" spans="12:12">
-      <c r="L58" s="30"/>
+      <c r="L58" s="20"/>
     </row>
     <row r="59" spans="12:12">
-      <c r="L59" s="30"/>
+      <c r="L59" s="20"/>
     </row>
     <row r="60" spans="12:12">
-      <c r="L60" s="30"/>
+      <c r="L60" s="20"/>
     </row>
     <row r="61" spans="12:12">
-      <c r="L61" s="30"/>
+      <c r="L61" s="20"/>
     </row>
     <row r="62" spans="12:12">
-      <c r="L62" s="30"/>
+      <c r="L62" s="20"/>
     </row>
     <row r="63" spans="12:12">
-      <c r="L63" s="30"/>
+      <c r="L63" s="20"/>
     </row>
     <row r="64" spans="12:12">
-      <c r="L64" s="30"/>
+      <c r="L64" s="20"/>
     </row>
     <row r="65" spans="12:12">
-      <c r="L65" s="30"/>
+      <c r="L65" s="20"/>
     </row>
     <row r="66" spans="12:12">
-      <c r="L66" s="30"/>
+      <c r="L66" s="20"/>
     </row>
     <row r="67" spans="12:12">
-      <c r="L67" s="30"/>
+      <c r="L67" s="20"/>
     </row>
     <row r="68" spans="12:12">
-      <c r="L68" s="30"/>
+      <c r="L68" s="20"/>
     </row>
     <row r="69" spans="12:12">
-      <c r="L69" s="30"/>
+      <c r="L69" s="20"/>
     </row>
     <row r="70" spans="12:12">
-      <c r="L70" s="30"/>
+      <c r="L70" s="20"/>
     </row>
     <row r="71" spans="12:12">
-      <c r="L71" s="30"/>
+      <c r="L71" s="20"/>
     </row>
     <row r="72" spans="12:12">
-      <c r="L72" s="30"/>
+      <c r="L72" s="20"/>
     </row>
     <row r="73" spans="12:12">
-      <c r="L73" s="30"/>
+      <c r="L73" s="20"/>
     </row>
     <row r="74" spans="12:12">
-      <c r="L74" s="30"/>
+      <c r="L74" s="20"/>
     </row>
     <row r="75" spans="12:12">
-      <c r="L75" s="30"/>
+      <c r="L75" s="20"/>
     </row>
     <row r="76" spans="12:12">
-      <c r="L76" s="30"/>
+      <c r="L76" s="20"/>
     </row>
     <row r="77" spans="12:12">
-      <c r="L77" s="30"/>
+      <c r="L77" s="20"/>
     </row>
     <row r="78" spans="12:12">
-      <c r="L78" s="30"/>
+      <c r="L78" s="20"/>
     </row>
     <row r="79" spans="12:12">
-      <c r="L79" s="30"/>
+      <c r="L79" s="20"/>
     </row>
     <row r="80" spans="12:12">
-      <c r="L80" s="30"/>
+      <c r="L80" s="20"/>
     </row>
     <row r="81" spans="12:12">
-      <c r="L81" s="30"/>
+      <c r="L81" s="20"/>
     </row>
     <row r="82" spans="12:12">
-      <c r="L82" s="30"/>
+      <c r="L82" s="20"/>
     </row>
     <row r="83" spans="12:12">
-      <c r="L83" s="30"/>
+      <c r="L83" s="20"/>
     </row>
     <row r="84" spans="12:12">
-      <c r="L84" s="30"/>
+      <c r="L84" s="20"/>
     </row>
     <row r="85" spans="12:12">
-      <c r="L85" s="30"/>
+      <c r="L85" s="20"/>
     </row>
     <row r="86" spans="12:12">
-      <c r="L86" s="30"/>
+      <c r="L86" s="20"/>
     </row>
     <row r="87" spans="12:12">
-      <c r="L87" s="30"/>
+      <c r="L87" s="20"/>
     </row>
     <row r="88" spans="12:12">
-      <c r="L88" s="30"/>
+      <c r="L88" s="20"/>
     </row>
     <row r="89" spans="12:12">
-      <c r="L89" s="30"/>
+      <c r="L89" s="20"/>
     </row>
     <row r="90" spans="12:12">
-      <c r="L90" s="30"/>
+      <c r="L90" s="20"/>
     </row>
     <row r="91" spans="12:12">
-      <c r="L91" s="30"/>
+      <c r="L91" s="20"/>
     </row>
     <row r="92" spans="12:12">
-      <c r="L92" s="30"/>
+      <c r="L92" s="20"/>
     </row>
     <row r="93" spans="12:12">
-      <c r="L93" s="30"/>
+      <c r="L93" s="20"/>
     </row>
     <row r="94" spans="12:12">
-      <c r="L94" s="30"/>
+      <c r="L94" s="20"/>
     </row>
     <row r="95" spans="12:12">
-      <c r="L95" s="30"/>
+      <c r="L95" s="20"/>
     </row>
     <row r="96" spans="12:12">
-      <c r="L96" s="30"/>
+      <c r="L96" s="20"/>
     </row>
     <row r="97" spans="12:12">
-      <c r="L97" s="30"/>
+      <c r="L97" s="20"/>
     </row>
     <row r="98" spans="12:12">
-      <c r="L98" s="30"/>
+      <c r="L98" s="20"/>
     </row>
     <row r="99" spans="12:12">
-      <c r="L99" s="30"/>
+      <c r="L99" s="20"/>
     </row>
     <row r="100" spans="12:12">
-      <c r="L100" s="30"/>
+      <c r="L100" s="20"/>
     </row>
     <row r="101" spans="12:12">
-      <c r="L101" s="30"/>
+      <c r="L101" s="20"/>
     </row>
     <row r="102" spans="12:12">
-      <c r="L102" s="30"/>
+      <c r="L102" s="20"/>
     </row>
     <row r="103" spans="12:12">
-      <c r="L103" s="30"/>
+      <c r="L103" s="20"/>
     </row>
     <row r="104" spans="12:12">
-      <c r="L104" s="30"/>
+      <c r="L104" s="20"/>
     </row>
     <row r="105" spans="12:12">
-      <c r="L105" s="30"/>
+      <c r="L105" s="20"/>
     </row>
     <row r="106" spans="12:12">
-      <c r="L106" s="30"/>
+      <c r="L106" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="K22:M22"/>
@@ -2571,95 +2790,16 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
